--- a/plot_tables.xlsx
+++ b/plot_tables.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="16">
   <si>
     <t>N</t>
   </si>
@@ -39,28 +39,36 @@
     <t>PEARSON</t>
   </si>
   <si>
-    <t>NC-IDF</t>
-  </si>
-  <si>
     <t>N = 50, H = 2</t>
   </si>
   <si>
-    <t xml:space="preserve"> Tanimoto </t>
+    <t>Log</t>
   </si>
   <si>
-    <t xml:space="preserve">    NP </t>
+    <t>Tanimoto</t>
   </si>
   <si>
-    <t xml:space="preserve"> Pearson </t>
+    <t>Pearson</t>
   </si>
   <si>
-    <t xml:space="preserve">    NP-TFIDF </t>
+    <t>NP
+(Tanimoto)</t>
   </si>
   <si>
-    <t>ACL</t>
+    <t>NC-IDF
+(Tanimoto)</t>
   </si>
   <si>
-    <t>Log</t>
+    <t>NP
+(Pearson)</t>
+  </si>
+  <si>
+    <t>NP-TFIDF
+(Pearson)</t>
+  </si>
+  <si>
+    <t>ACL
+(Log)</t>
   </si>
 </sst>
 </file>
@@ -102,10 +110,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1988,6 +1999,191 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Precision</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>NP
+(Tanimoto)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NC-IDF
+(Tanimoto)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NP
+(Pearson)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NP-TFIDF
+(Pearson)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ACL
+(Log)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.8E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.3000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3999999999999997E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Recall</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.106</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.111</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.3000000000000004E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="165012608"/>
+        <c:axId val="165032320"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="165012608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="165032320"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="165032320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="165012608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2111,6 +2307,41 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>278130</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3414,13 +3645,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
@@ -3430,67 +3664,82 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>7</v>
+    <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D2">
+        <v>0.106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3">
+      <c r="C4">
         <v>0.5</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>0.111</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5">
+    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/plot_tables.xlsx
+++ b/plot_tables.xlsx
@@ -51,10 +51,6 @@
     <t>Pearson</t>
   </si>
   <si>
-    <t>NP
-(Tanimoto)</t>
-  </si>
-  <si>
     <t>NC-IDF
 (Tanimoto)</t>
   </si>
@@ -69,6 +65,10 @@
   <si>
     <t>ACL
 (Log)</t>
+  </si>
+  <si>
+    <t>NC
+(Tanimoto)</t>
   </si>
 </sst>
 </file>
@@ -2040,7 +2040,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>NP
+                  <c:v>NC
 (Tanimoto)</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -3648,7 +3648,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3667,9 +3667,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -3683,7 +3683,7 @@
     </row>
     <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -3697,7 +3697,7 @@
     </row>
     <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -3711,7 +3711,7 @@
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -3725,7 +3725,7 @@
     </row>
     <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>

--- a/plot_tables.xlsx
+++ b/plot_tables.xlsx
@@ -51,10 +51,6 @@
     <t>Pearson</t>
   </si>
   <si>
-    <t>NC-IDF
-(Tanimoto)</t>
-  </si>
-  <si>
     <t>NP
 (Pearson)</t>
   </si>
@@ -68,6 +64,10 @@
   </si>
   <si>
     <t>NC
+(Tanimoto)</t>
+  </si>
+  <si>
+    <t>NC-TFIDF
 (Tanimoto)</t>
   </si>
 </sst>
@@ -2044,7 +2044,7 @@
 (Tanimoto)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>NC-IDF
+                  <c:v>NC-TFIDF
 (Tanimoto)</c:v>
                 </c:pt>
                 <c:pt idx="2">
@@ -3669,7 +3669,7 @@
     </row>
     <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -3681,9 +3681,9 @@
         <v>0.106</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -3697,7 +3697,7 @@
     </row>
     <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -3711,7 +3711,7 @@
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -3725,7 +3725,7 @@
     </row>
     <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>

--- a/plot_tables.xlsx
+++ b/plot_tables.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="13476" yWindow="48" windowWidth="9576" windowHeight="9648"/>
+    <workbookView xWindow="13476" yWindow="48" windowWidth="9576" windowHeight="9648" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="4" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1 (2)'!$A$1:$Q$1</definedName>
@@ -90,22 +91,6 @@
     <t>Euc Dist</t>
   </si>
   <si>
-    <t>NP-Log
-(Euc Dist)</t>
-  </si>
-  <si>
-    <t>NP-Log
-(Log)</t>
-  </si>
-  <si>
-    <t>NP-Log
-(Tanimoto)</t>
-  </si>
-  <si>
-    <t>NP-Log
-(Pearson)</t>
-  </si>
-  <si>
     <t>NP (Pearson)</t>
   </si>
   <si>
@@ -152,6 +137,18 @@
   </si>
   <si>
     <t>Similarity Measure</t>
+  </si>
+  <si>
+    <t>NP-Log (Euc Dist)</t>
+  </si>
+  <si>
+    <t>NP-Log (Log)</t>
+  </si>
+  <si>
+    <t>NP-Log (Tanimoto)</t>
+  </si>
+  <si>
+    <t>NP-Log (Pearson)</t>
   </si>
 </sst>
 </file>
@@ -1321,7 +1318,7 @@
             <c:strRef>
               <c:f>Sheet3!$A$1:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>NP (Pearson)</c:v>
                 </c:pt>
@@ -1347,15 +1344,27 @@
                   <c:v>NP-Gauss (Tanimoto)</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>NP-Log (Pearson)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>NP-Log (Euc Dist)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>NP-Log (Log)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>NP-Log (Tanimoto)</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>NP-TFIDF (Pearson)</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
                   <c:v>NP-TFIDF (Euc Dist)</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>NP-TFIDF (Log)</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>NP-TFIDF (Tanimoto)</c:v>
                 </c:pt>
               </c:strCache>
@@ -1366,7 +1375,7 @@
               <c:f>Sheet3!$I$1:$I$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1392,15 +1401,27 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>1.0204081632653E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.5714285714285698E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.54545454545454E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.105263157894736</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1418,7 +1439,7 @@
             <c:strRef>
               <c:f>Sheet3!$A$1:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>NP (Pearson)</c:v>
                 </c:pt>
@@ -1444,15 +1465,27 @@
                   <c:v>NP-Gauss (Tanimoto)</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>NP-Log (Pearson)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>NP-Log (Euc Dist)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>NP-Log (Log)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>NP-Log (Tanimoto)</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>NP-TFIDF (Pearson)</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
                   <c:v>NP-TFIDF (Euc Dist)</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>NP-TFIDF (Log)</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>NP-TFIDF (Tanimoto)</c:v>
                 </c:pt>
               </c:strCache>
@@ -1463,7 +1496,7 @@
               <c:f>Sheet3!$J$1:$J$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1489,15 +1522,27 @@
                   <c:v>0.154</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>8.6206896551724102E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0270270270270199E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.5294117647058802E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0.111</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1626,7 +1671,7 @@
             <c:strRef>
               <c:f>Sheet3!$A$1:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>NP (Pearson)</c:v>
                 </c:pt>
@@ -1652,15 +1697,27 @@
                   <c:v>NP-Gauss (Tanimoto)</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>NP-Log (Pearson)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>NP-Log (Euc Dist)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>NP-Log (Log)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>NP-Log (Tanimoto)</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>NP-TFIDF (Pearson)</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
                   <c:v>NP-TFIDF (Euc Dist)</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>NP-TFIDF (Log)</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>NP-TFIDF (Tanimoto)</c:v>
                 </c:pt>
               </c:strCache>
@@ -1671,7 +1728,7 @@
               <c:f>Sheet3!$I$20:$I$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0.5</c:v>
                 </c:pt>
@@ -1697,12 +1754,18 @@
                   <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>2.64705882352941E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.104545454545454</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>8.3000000000000004E-2</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>7.0999999999999994E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -1720,7 +1783,7 @@
             <c:strRef>
               <c:f>Sheet3!$A$1:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>NP (Pearson)</c:v>
                 </c:pt>
@@ -1746,15 +1809,27 @@
                   <c:v>NP-Gauss (Tanimoto)</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>NP-Log (Pearson)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>NP-Log (Euc Dist)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>NP-Log (Log)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>NP-Log (Tanimoto)</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>NP-TFIDF (Pearson)</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
                   <c:v>NP-TFIDF (Euc Dist)</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>NP-TFIDF (Log)</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>NP-TFIDF (Tanimoto)</c:v>
                 </c:pt>
               </c:strCache>
@@ -1765,7 +1840,7 @@
               <c:f>Sheet3!$J$20:$J$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0.1</c:v>
                 </c:pt>
@@ -1791,12 +1866,18 @@
                   <c:v>0.153</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>2.64705882352941E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.22727272727272E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.111</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>0.125</c:v>
                 </c:pt>
               </c:numCache>
@@ -5554,7 +5635,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="U43" sqref="U43"/>
     </sheetView>
   </sheetViews>
@@ -5566,7 +5647,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -5581,7 +5662,7 @@
         <v>1</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>0</v>
@@ -5596,7 +5677,7 @@
         <v>1</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>0</v>
@@ -6177,13 +6258,13 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -7309,15 +7390,15 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:10" s="4" customFormat="1" ht="14.4" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>16</v>
@@ -7349,7 +7430,7 @@
     </row>
     <row r="2" spans="1:10" s="4" customFormat="1" ht="14.4" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>18</v>
@@ -7381,7 +7462,7 @@
     </row>
     <row r="3" spans="1:10" s="4" customFormat="1" ht="14.4" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>19</v>
@@ -7413,7 +7494,7 @@
     </row>
     <row r="4" spans="1:10" ht="43.2">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>9</v>
@@ -7437,7 +7518,7 @@
     </row>
     <row r="5" spans="1:10" ht="14.4" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>10</v>
@@ -7461,7 +7542,7 @@
     </row>
     <row r="6" spans="1:10" ht="28.8">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>20</v>
@@ -7485,7 +7566,7 @@
     </row>
     <row r="7" spans="1:10" ht="14.4" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>8</v>
@@ -7509,7 +7590,7 @@
     </row>
     <row r="8" spans="1:10" ht="43.2">
       <c r="A8" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>9</v>
@@ -7531,9 +7612,9 @@
         <v>0.154</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="9" spans="1:10" ht="14.4" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>10</v>
@@ -7547,12 +7628,16 @@
         <v>2</v>
       </c>
       <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
+      <c r="I9">
+        <v>1.0204081632653E-2</v>
+      </c>
+      <c r="J9">
+        <v>8.6206896551724102E-3</v>
+      </c>
     </row>
-    <row r="10" spans="1:10" ht="28.8" hidden="1">
+    <row r="10" spans="1:10" ht="28.8">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>20</v>
@@ -7566,12 +7651,16 @@
         <v>2</v>
       </c>
       <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
+      <c r="I10">
+        <v>3.5714285714285698E-2</v>
+      </c>
+      <c r="J10">
+        <v>2.0270270270270199E-2</v>
+      </c>
     </row>
-    <row r="11" spans="1:10" ht="28.8" hidden="1">
+    <row r="11" spans="1:10" ht="28.8">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>8</v>
@@ -7585,12 +7674,16 @@
         <v>2</v>
       </c>
       <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="I11">
+        <v>4.54545454545454E-2</v>
+      </c>
+      <c r="J11">
+        <v>3.5294117647058802E-2</v>
+      </c>
     </row>
-    <row r="12" spans="1:10" ht="43.2" hidden="1">
+    <row r="12" spans="1:10" ht="43.2">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>9</v>
@@ -7604,12 +7697,16 @@
         <v>2</v>
       </c>
       <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+      <c r="I12">
+        <v>0.105263157894736</v>
+      </c>
+      <c r="J12">
+        <v>3.125E-2</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="28.8">
       <c r="A13" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>10</v>
@@ -7632,7 +7729,7 @@
     </row>
     <row r="14" spans="1:10" ht="28.8">
       <c r="A14" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>9</v>
@@ -7656,7 +7753,7 @@
     </row>
     <row r="15" spans="1:10" ht="28.8">
       <c r="A15" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>8</v>
@@ -7680,7 +7777,7 @@
     </row>
     <row r="16" spans="1:10" ht="43.2">
       <c r="A16" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>20</v>
@@ -7704,7 +7801,7 @@
     </row>
     <row r="20" spans="1:10" s="4" customFormat="1" ht="14.4" customHeight="1">
       <c r="A20" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>16</v>
@@ -7736,7 +7833,7 @@
     </row>
     <row r="21" spans="1:10" s="4" customFormat="1" ht="14.4" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>18</v>
@@ -7768,7 +7865,7 @@
     </row>
     <row r="22" spans="1:10" s="4" customFormat="1" ht="14.4" customHeight="1">
       <c r="A22" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>19</v>
@@ -7800,7 +7897,7 @@
     </row>
     <row r="23" spans="1:10" ht="43.2">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>9</v>
@@ -7824,7 +7921,7 @@
     </row>
     <row r="24" spans="1:10" ht="28.8">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>10</v>
@@ -7848,7 +7945,7 @@
     </row>
     <row r="25" spans="1:10" ht="28.8">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>20</v>
@@ -7872,7 +7969,7 @@
     </row>
     <row r="26" spans="1:10" ht="28.8">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>8</v>
@@ -7896,7 +7993,7 @@
     </row>
     <row r="27" spans="1:10" ht="43.2">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>9</v>
@@ -7918,9 +8015,9 @@
         <v>0.153</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="28.8" hidden="1">
+    <row r="28" spans="1:10" ht="28.8">
       <c r="A28" s="1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>10</v>
@@ -7935,12 +8032,16 @@
         <v>2</v>
       </c>
       <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
+      <c r="I28">
+        <v>2.64705882352941E-2</v>
+      </c>
+      <c r="J28">
+        <v>2.64705882352941E-2</v>
+      </c>
     </row>
     <row r="29" spans="1:10" ht="28.8" hidden="1">
       <c r="A29" s="1" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>20</v>
@@ -7960,7 +8061,7 @@
     </row>
     <row r="30" spans="1:10" ht="28.8" hidden="1">
       <c r="A30" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>8</v>
@@ -7978,9 +8079,9 @@
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
     </row>
-    <row r="31" spans="1:10" ht="43.2" hidden="1">
+    <row r="31" spans="1:10" ht="43.2">
       <c r="A31" s="1" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>9</v>
@@ -7995,12 +8096,16 @@
         <v>2</v>
       </c>
       <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
+      <c r="I31">
+        <v>0.104545454545454</v>
+      </c>
+      <c r="J31">
+        <v>5.22727272727272E-2</v>
+      </c>
     </row>
     <row r="32" spans="1:10" ht="28.8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>10</v>
@@ -8024,7 +8129,7 @@
     </row>
     <row r="33" spans="1:10" ht="28.8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>9</v>
@@ -8048,7 +8153,7 @@
     </row>
     <row r="34" spans="1:10" ht="28.8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>8</v>
@@ -8072,7 +8177,7 @@
     </row>
     <row r="35" spans="1:10" ht="43.2">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>20</v>
@@ -8098,4 +8203,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>